--- a/ICT_AD_classification/dataset/20221011/kfold.xlsx
+++ b/ICT_AD_classification/dataset/20221011/kfold.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mklee\PycharmProjects\lab_assignments\ict\ICT_medical_AD_VFI\ICT_AD_classification\dataset\20221011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A01E3-1114-405D-9C0A-089B007223B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28893214-85B5-4601-B524-F9FAC706E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16200" windowHeight="15360" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="630">
   <si>
     <t>0</t>
   </si>
@@ -288,1642 +288,1640 @@
     <t>IDEA_914_181115_nuc_t1_resample.mnc</t>
   </si>
   <si>
+    <t>NRCDB_430_120221_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_511_160911_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_814_180506_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_036_170602_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_071_170626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1623_200125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_645_161122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1166_171212_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_971_170904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_432_160629_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_991_160926_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_462_171023_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_744_180423_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_883_170307_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_927_200716_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1331_180916_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_020_150904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_699_180623_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_349_170127_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_348_160506_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_744_161029_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_932_170715_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_516_180111_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_725_160221_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_757_180520_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_019_150827_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1275_190520_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1075_181203_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_862_190317_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1198_180728_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_099_140511_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_004_150807_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_019_170527_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_116_200127_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1246_190711_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_026_160413_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_115_190316_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1051_170912_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_282_160319_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_613_171229_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_530_160825_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_192_180210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1541_190121_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1146_190505_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_504_171117_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_717_161231_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_792_180826_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_595_161030_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_040_170416_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_564_180120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_954_170702_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_443_160708_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_913_170701_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_035_170401_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_348_170317_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_570_160913_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1053_181114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_050_150917_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1039_180712_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_586_160519_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1142_190409_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_874_181211_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_122_151227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1281_170629_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_293_160405_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_466_120917_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_742_180430_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_661_160401_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_655_170120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>ASBD_18_17_181017_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_040_170420_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_283_160611_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_777_180922_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_167_160128_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_120_191028_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_083_170709_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_034_160318_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_815_180911_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_649_180225_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1147_171010_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_544_171119_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_013_170403_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_946_170626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_764_180312_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_163_190913_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1233_180527_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_416_160814_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_628_160914_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_252_170421_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_885_170518_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1039_181214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1174_190427_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1203_180202_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1781_200506_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_258_161030_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_701_191230_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_482_120822_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_042_170410_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_039_150904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1413_190727_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1201_171021_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_950_181025_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_656_180217_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1234_190512_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1018_170924_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1302_170724_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_595_171001_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_576_171231_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_695_180415_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_036_150521_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_908_130915_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_539_191010_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1189_171126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_827_190203_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_452_171126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_793_180925_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_532_170930_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_033_170316_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_992_170904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1199_181230_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_073_170604_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1405_190826_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_582_180518_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_177_151009_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1129_160612_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_347_170316_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1558_181205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_720_160217_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_235_160331_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_712_180617_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_389_150514_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_634_160526_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_535_200130_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_548_161009_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_875_190206_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_047_150823_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_622_170930_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_151_160120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_473_190428_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>ASBD_17_29_171005_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_2336_180426_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_055_160626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1296_181127_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1797_200512_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1695_191205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_937_170720_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_523_160903_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1184_180520_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_072_161019_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_829_170330_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_710_161125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1207_160120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1036_171023_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_986_160223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_366_150122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_890_140501_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_096_150731_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1103_170627_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_067_170709_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1451_190812_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_872_170306_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_200_160331_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_001_170624_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_816_160430_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1404_190507_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_064_170114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_342_161022_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1481_191130_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_931_190127_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_329_160624_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_818_181102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_015_150911_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_549_160904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_338_160416_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1043_190319_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_041_141227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_151_160122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1078_171119_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_597_161116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_599_180211_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_271_161227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_030_170416_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_448_170624_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1290_180614_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_050_160122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_074_170627_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1009_170926_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_452_171114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_647_171223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_869_170324_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1460_190913_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_547_171126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1385_190324_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_637_160122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_603_171126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_279_130923_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_552_160824_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_446_160529_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_276_160417_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_275_151126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_668_160221_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_123_170516_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_574_171125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_005_160114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_183_160523_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_645_200827_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_859_181229_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_131_161011_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_005_141026_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_119_170730_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_040_151016_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_384_160629_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_948_180921_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_016_170219_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1111_190526_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_969_181230_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_043_170427_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1341_180504_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1303_181205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1054_161010_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_428_180629_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1070_171125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_040_200404_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_559_161011_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_631_180124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_388_180917_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_497_171004_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_947_200502_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_615_160214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_026_160419_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_884_181129_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_189_140225_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_352_160504_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_835_180822_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_261_150125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_489_160901_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_164_120221_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1173_160211_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_301_150904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_631_161117_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_379_160622_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_017_170701_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1215_190429_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_679_170120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_212_160426_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_014_150910_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_032_160320_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_664_180331_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_063_150407_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_577_160625_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1244_190207_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_418_181123_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1139_181111_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1069_180503_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_487_160828_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_198_141214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_718_161227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_651_170227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_076_170629_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_570_171025_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1782_200508_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_697_170822_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_605_160123_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_486_191229_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>ASBD_17_30_170825_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_520_160824_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_045_150813_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_008_150528_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_016_150828_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_005_150120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1238_161016_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_105_160227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_873_181223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_109_151222_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_639_171228_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1055_171102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1436_190917_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_566_170626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1391_190819_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_826_160304_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1240_180510_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_617_160124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_882_171023_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_086_170510_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_719_180213_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1188_180102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_295_160412_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_493_150428_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_953_161001_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1564_191221_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_093_170730_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_295_150403_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_381_160522_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_068_160825_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_852_180519_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_035_131028_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1118_180730_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_610_171028_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_097_151208_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_072_171227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_766_170826_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_113_170730_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1269_180429_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_196_160304_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_702_161214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_684_171021_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_069_170623_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1182_180315_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_241_151118_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1077_201113_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_158_160212_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_691_180320_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1042_170908_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1112_180808_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1444_180615_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_100_170827_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_986_190131_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_572_160905_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_040_160227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_770_180427_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1187_171224_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_010_151109_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1178_190616_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_659_160617_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_526_170826_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1007_181227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_940_170726_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_054_160319_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_098_150102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_063_151015_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_710_180825_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1149_180107_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_733_200116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_024_170821_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1140_180415_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1117_171116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_919_170901_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_732_161223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_624_170903_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_046_160616_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_625_170903_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_031_160325_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_670_170122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_182_160724_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_801_180925_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_053_160505_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_569_161007_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_481_160129_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_587_160817_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_333_160528_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_900_180724_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_555_171206_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_936_170806_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_672_160121_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1245_181102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_695_160128_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1125_180816_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_137_170211_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_658_180905_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_527_160926_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_044_181203_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1229_190608_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_515_160819_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1047_190305_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_037_190830_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_370_160229_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1028_170904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_517_180124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_984_190304_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_410_191010_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1078_190130_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_669_180121_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>ASBD_17_26_171115_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1293_180824_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_661_171227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_627_161028_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_070_161010_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_716_160212_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_769_170116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_169_170205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_500_160902_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_660_160202_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1124_190331_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1066_170719_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1260_131227_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_990_170626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1061_190125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_714_160123_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_078_140327_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_046_151029_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_455_170810_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_341_161022_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_066_150530_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_993_190305_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_134_160105_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_961_181116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_450_171114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_002_170423_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_878_160714_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_010_170211_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_638_170124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_438_160707_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_880_181117_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_266_160421_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1138_180124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1231_180628_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_751_180708_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_100_151018_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_808_180802_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_054_170527_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1052_171028_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_279_170317_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_563_171202_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_652_160122_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_606_201004_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_067_160923_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_211_200126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_138_130927_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1341_190816_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_839_181114_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_799_110429_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_614_160112_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1650_200101_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_022_150826_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_554_180106_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_609_171224_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1038_180609_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_819_181128_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1293_190627_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_468_160815_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_792_170318_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1434_190927_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1536_191030_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1001_190202_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1087_150830_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1064_180526_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_947_181127_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_286_150519_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_746_180509_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_743_180410_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_031_170929_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_263_160811_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_896_181214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1056_190320_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1343_190725_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_614_180106_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_205_150430_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_909_181123_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1608_200124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_640_180214_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1286_180712_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1129_190317_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_667_160107_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1167_161013_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_834_181007_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1603_181210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1276_180620_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_451_170927_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_103_160709_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1427_190117_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_197_160224_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_698_160212_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_847_181027_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1255_190922_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1119_171213_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_029_170423_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1202_140527_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_120_150210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_168_160205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_088_151124_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1134_190302_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1016_170817_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_390_160702_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_604_160523_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_972_170904_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1127_181116_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_109_170723_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_787_180930_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_675_161125_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_083_141223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_470_160508_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_209_160205_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_303_180912_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1339_180508_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1338_190714_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_049_170625_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1108_190123_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_222_160404_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1438_200210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1100_180115_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_268_161223_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_059_170618_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_072_151104_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1208_190531_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_936_170717_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1212_180416_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1197_180325_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1021_170817_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_106_160626_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_063_160929_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1350_171210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>ASBD_18_31_181130_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_654_170118_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_037_170420_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1433_190718_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1228_190401_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_161_160513_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_912_190118_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_615_170619_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_289_170927_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_051_150207_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1206_180111_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_548_171210_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_253_161120_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1136_181126_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_091_170726_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_673_180331_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_959_190131_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_691_161226_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_652_180310_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1042_190501_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1139_190128_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1093_190407_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1458_191009_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_024_150919_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_207_150416_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_446_170411_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_218_150318_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_051_170605_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_1327_180916_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_302_160325_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_824_190303_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_745_151102_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_708_160802_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>SMC_THK_055_160430_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_214_131209_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1031_180330_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_195_160303_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_984_170829_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_1156_200208_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>IDEA_769_170825_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>AM_SM_012_170326_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>NRCDB_010_150529_nuc_t1_resample.mnc</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
     <t>NRCDB_142_160127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_430_120221_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_511_160911_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_814_180506_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_036_170602_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_071_170626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1623_200125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_645_161122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1166_171212_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_971_170904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_432_160629_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_991_160926_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_462_171023_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_744_180423_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_883_170307_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_927_200716_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1331_180916_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_020_150904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_699_180623_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_349_170127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_348_160506_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_744_161029_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_932_170715_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_516_180111_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_725_160221_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_757_180520_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_019_150827_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1275_190520_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1075_181203_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_862_190317_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1198_180728_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_099_140511_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_004_150807_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_019_170527_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_116_200127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1246_190711_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_026_160413_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_115_190316_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1051_170912_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_282_160319_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_613_171229_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_530_160825_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_192_180210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1541_190121_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1146_190505_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_504_171117_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_717_161231_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_792_180826_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_595_161030_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_040_170416_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_564_180120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_954_170702_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_443_160708_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_913_170701_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_035_170401_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_348_170317_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_570_160913_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1053_181114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_050_150917_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1039_180712_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_586_160519_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1142_190409_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_874_181211_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_122_151227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1281_170629_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_293_160405_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_466_120917_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_742_180430_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_661_160401_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_655_170120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>ASBD_18_17_181017_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_040_170420_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_283_160611_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_777_180922_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_167_160128_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_120_191028_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_083_170709_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_034_160318_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_815_180911_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_649_180225_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1147_171010_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_544_171119_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_013_170403_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_946_170626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_764_180312_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_163_190913_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1233_180527_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_416_160814_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_628_160914_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_252_170421_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_885_170518_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1039_181214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1174_190427_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1203_180202_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1781_200506_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_258_161030_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_701_191230_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_482_120822_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_042_170410_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_039_150904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1413_190727_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1201_171021_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_950_181025_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_656_180217_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1234_190512_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1018_170924_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1302_170724_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_595_171001_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_576_171231_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_695_180415_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_036_150521_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_908_130915_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_539_191010_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1189_171126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_827_190203_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_452_171126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_793_180925_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_532_170930_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_033_170316_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_992_170904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1199_181230_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_073_170604_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1405_190826_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_582_180518_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_177_151009_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1129_160612_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_347_170316_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1558_181205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_720_160217_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_235_160331_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_712_180617_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_389_150514_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_634_160526_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_535_200130_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_548_161009_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_875_190206_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_047_150823_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_622_170930_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_151_160120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_473_190428_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>ASBD_17_29_171005_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_2336_180426_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_055_160626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1296_181127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1797_200512_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1695_191205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_937_170720_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_523_160903_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1184_180520_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_072_161019_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_829_170330_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_710_161125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1207_160120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1036_171023_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_986_160223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_366_150122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_890_140501_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_096_150731_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1103_170627_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_067_170709_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1451_190812_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_872_170306_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_200_160331_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_001_170624_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_816_160430_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1404_190507_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_064_170114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_342_161022_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1481_191130_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_931_190127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_329_160624_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_818_181102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_015_150911_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_549_160904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_338_160416_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1043_190319_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_041_141227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_151_160122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1078_171119_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_597_161116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_599_180211_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_271_161227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_030_170416_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_448_170624_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1290_180614_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_050_160122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_074_170627_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1009_170926_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_452_171114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_647_171223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_869_170324_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1460_190913_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_547_171126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1385_190324_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_637_160122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_603_171126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_279_130923_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_552_160824_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_446_160529_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_276_160417_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_275_151126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_668_160221_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_123_170516_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_574_171125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_005_160114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_183_160523_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_645_200827_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_859_181229_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_131_161011_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_005_141026_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_119_170730_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_040_151016_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_384_160629_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_948_180921_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_016_170219_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1111_190526_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_969_181230_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_043_170427_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1341_180504_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1303_181205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1054_161010_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_428_180629_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1070_171125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_040_200404_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_559_161011_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_631_180124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_388_180917_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_497_171004_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_947_200502_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_615_160214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_026_160419_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_884_181129_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_189_140225_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_352_160504_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_835_180822_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_261_150125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_489_160901_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_164_120221_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1173_160211_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_301_150904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_631_161117_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_379_160622_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_017_170701_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1215_190429_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_679_170120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_212_160426_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_014_150910_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_032_160320_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_664_180331_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_063_150407_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_577_160625_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1244_190207_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_418_181123_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1139_181111_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1069_180503_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_487_160828_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_198_141214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_718_161227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_651_170227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_076_170629_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_570_171025_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1782_200508_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_697_170822_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_605_160123_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_486_191229_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>ASBD_17_30_170825_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_520_160824_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_045_150813_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_008_150528_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_016_150828_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_005_150120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1238_161016_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_105_160227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_873_181223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_109_151222_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_639_171228_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1055_171102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1436_190917_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_566_170626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1391_190819_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_826_160304_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1240_180510_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_617_160124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_882_171023_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_086_170510_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_719_180213_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1188_180102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_295_160412_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_493_150428_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_953_161001_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1564_191221_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_093_170730_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_295_150403_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_381_160522_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_068_160825_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_852_180519_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_035_131028_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1118_180730_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_610_171028_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_097_151208_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_072_171227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_766_170826_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_113_170730_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1269_180429_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_196_160304_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_702_161214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_684_171021_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_069_170623_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1182_180315_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_241_151118_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1077_201113_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_158_160212_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_691_180320_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1042_170908_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1112_180808_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1444_180615_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_100_170827_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_986_190131_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_572_160905_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_040_160227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_770_180427_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1187_171224_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_010_151109_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1178_190616_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_659_160617_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_526_170826_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1007_181227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_940_170726_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_054_160319_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_098_150102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_063_151015_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_710_180825_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1149_180107_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_733_200116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_024_170821_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1140_180415_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1117_171116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_919_170901_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_732_161223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_624_170903_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_046_160616_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_625_170903_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_031_160325_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_670_170122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_182_160724_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_801_180925_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_053_160505_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_569_161007_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_481_160129_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_587_160817_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_333_160528_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_900_180724_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_555_171206_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_936_170806_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_672_160121_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1245_181102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_695_160128_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1125_180816_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_137_170211_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_658_180905_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_527_160926_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_044_181203_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1229_190608_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_515_160819_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1047_190305_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_037_190830_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_370_160229_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1028_170904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_517_180124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_984_190304_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_410_191010_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1078_190130_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_669_180121_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>ASBD_17_26_171115_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1293_180824_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_661_171227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_627_161028_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_070_161010_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_716_160212_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_769_170116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_169_170205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_500_160902_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_660_160202_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1124_190331_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1066_170719_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1260_131227_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_990_170626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1061_190125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_714_160123_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_078_140327_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_046_151029_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_455_170810_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_341_161022_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_066_150530_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_993_190305_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_134_160105_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_961_181116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_450_171114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_002_170423_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_878_160714_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_010_170211_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_638_170124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_438_160707_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_880_181117_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_266_160421_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1138_180124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1231_180628_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_751_180708_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_100_151018_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_808_180802_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_054_170527_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1052_171028_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_279_170317_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_563_171202_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_652_160122_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_606_201004_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_067_160923_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_211_200126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_138_130927_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1341_190816_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_839_181114_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_799_110429_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_614_160112_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1650_200101_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_022_150826_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_554_180106_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_609_171224_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1038_180609_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_819_181128_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1293_190627_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_468_160815_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_792_170318_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1434_190927_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1536_191030_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1001_190202_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1087_150830_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1064_180526_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_947_181127_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_286_150519_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_746_180509_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_743_180410_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_031_170929_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_263_160811_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_896_181214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1056_190320_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1343_190725_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_614_180106_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_205_150430_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_909_181123_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1608_200124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_640_180214_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1286_180712_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1129_190317_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_667_160107_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1167_161013_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_834_181007_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1603_181210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1276_180620_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_451_170927_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_103_160709_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1427_190117_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_197_160224_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_698_160212_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_847_181027_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1255_190922_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1119_171213_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_029_170423_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1202_140527_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_120_150210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_168_160205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_088_151124_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1134_190302_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1016_170817_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_390_160702_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_604_160523_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_972_170904_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1127_181116_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_109_170723_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_787_180930_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_675_161125_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_083_141223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_470_160508_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_209_160205_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_303_180912_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1339_180508_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1338_190714_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_049_170625_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1108_190123_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_222_160404_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1438_200210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1100_180115_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_268_161223_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_059_170618_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_072_151104_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1208_190531_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_936_170717_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1212_180416_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1197_180325_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1021_170817_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_106_160626_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_063_160929_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1350_171210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>ASBD_18_31_181130_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_654_170118_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_037_170420_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1433_190718_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1228_190401_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_161_160513_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_912_190118_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_615_170619_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_289_170927_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_051_150207_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_1206_180111_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_548_171210_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_253_161120_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1136_181126_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_091_170726_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_673_180331_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_959_190131_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_691_161226_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_652_180310_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1042_190501_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1139_190128_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1093_190407_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1458_191009_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_024_150919_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_207_150416_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_446_170411_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_218_150318_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_051_170605_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>NRCDB_1327_180916_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_302_160325_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_824_190303_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_745_151102_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_708_160802_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>SMC_THK_055_160430_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_214_131209_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1031_180330_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_195_160303_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_984_170829_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_1156_200208_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>IDEA_769_170825_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>AM_SM_012_170326_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>NRCDB_010_150529_nuc_t1_resample.mnc</t>
-  </si>
-  <si>
-    <t>Fold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2399,7 +2397,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E126" sqref="E126:E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2409,7 +2407,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2752,19 +2750,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2772,19 +2770,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2792,19 +2790,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>97</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2812,19 +2810,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>102</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2832,19 +2830,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2852,19 +2850,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>112</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2872,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>117</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2892,19 +2890,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>121</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>122</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2912,19 +2910,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>127</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2932,19 +2930,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>131</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2952,19 +2950,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2972,19 +2970,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>142</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2992,19 +2990,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>147</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3012,19 +3010,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
         <v>150</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>151</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>152</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3032,19 +3030,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
         <v>155</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>157</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>158</v>
-      </c>
-      <c r="F32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3052,19 +3050,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" t="s">
         <v>160</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>161</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>162</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3072,19 +3070,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" t="s">
         <v>165</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>166</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>167</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>168</v>
-      </c>
-      <c r="F34" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3092,19 +3090,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>171</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>172</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>173</v>
-      </c>
-      <c r="F35" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3112,19 +3110,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" t="s">
         <v>175</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>176</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>177</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>178</v>
-      </c>
-      <c r="F36" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3132,19 +3130,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>181</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>182</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>183</v>
-      </c>
-      <c r="F37" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3152,19 +3150,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>186</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>188</v>
-      </c>
-      <c r="F38" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3172,19 +3170,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" t="s">
         <v>190</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>191</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>192</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>193</v>
-      </c>
-      <c r="F39" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3192,19 +3190,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
         <v>195</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>196</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>197</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>198</v>
-      </c>
-      <c r="F40" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3212,19 +3210,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
         <v>200</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>201</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>202</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>203</v>
-      </c>
-      <c r="F41" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3232,19 +3230,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
         <v>205</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>206</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>207</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>208</v>
-      </c>
-      <c r="F42" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3252,19 +3250,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" t="s">
         <v>210</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>212</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>213</v>
-      </c>
-      <c r="F43" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3272,19 +3270,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
         <v>215</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>216</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>217</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3292,19 +3290,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" t="s">
         <v>220</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>221</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>222</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>223</v>
-      </c>
-      <c r="F45" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3312,19 +3310,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
         <v>225</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>226</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>227</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>228</v>
-      </c>
-      <c r="F46" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3332,19 +3330,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" t="s">
         <v>230</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>231</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>232</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>233</v>
-      </c>
-      <c r="F47" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3352,19 +3350,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" t="s">
         <v>235</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>236</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>237</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>238</v>
-      </c>
-      <c r="F48" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3372,19 +3370,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" t="s">
         <v>240</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>241</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>242</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>243</v>
-      </c>
-      <c r="F49" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3392,19 +3390,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" t="s">
         <v>245</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>246</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>247</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>248</v>
-      </c>
-      <c r="F50" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3412,19 +3410,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
         <v>250</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>251</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>252</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>253</v>
-      </c>
-      <c r="F51" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3432,19 +3430,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
         <v>255</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>256</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>257</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>258</v>
-      </c>
-      <c r="F52" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3452,19 +3450,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
         <v>260</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>261</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>262</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>263</v>
-      </c>
-      <c r="F53" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3472,19 +3470,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
         <v>265</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>266</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>267</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>268</v>
-      </c>
-      <c r="F54" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3492,19 +3490,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s">
         <v>270</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>271</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>272</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>273</v>
-      </c>
-      <c r="F55" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3512,19 +3510,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" t="s">
         <v>275</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>276</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>277</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>278</v>
-      </c>
-      <c r="F56" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3532,19 +3530,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
         <v>280</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>281</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>282</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>283</v>
-      </c>
-      <c r="F57" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3552,19 +3550,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" t="s">
         <v>285</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>286</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>287</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>288</v>
-      </c>
-      <c r="F58" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3572,19 +3570,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" t="s">
         <v>290</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>291</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>292</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>293</v>
-      </c>
-      <c r="F59" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3592,19 +3590,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" t="s">
         <v>295</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>296</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>297</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>298</v>
-      </c>
-      <c r="F60" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3612,19 +3610,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" t="s">
         <v>300</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>301</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>302</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>303</v>
-      </c>
-      <c r="F61" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3632,19 +3630,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" t="s">
         <v>305</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>306</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>307</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>308</v>
-      </c>
-      <c r="F62" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3652,19 +3650,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
         <v>310</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>311</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>312</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>313</v>
-      </c>
-      <c r="F63" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3672,19 +3670,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" t="s">
         <v>315</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>316</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>317</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>318</v>
-      </c>
-      <c r="F64" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3692,19 +3690,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" t="s">
         <v>320</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>321</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>322</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>323</v>
-      </c>
-      <c r="F65" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3712,19 +3710,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" t="s">
         <v>325</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>326</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>327</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>328</v>
-      </c>
-      <c r="F66" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3732,19 +3730,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" t="s">
         <v>330</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>331</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>332</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>333</v>
-      </c>
-      <c r="F67" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3752,19 +3750,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" t="s">
         <v>335</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>336</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>337</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>338</v>
-      </c>
-      <c r="F68" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3772,19 +3770,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="s">
         <v>340</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>341</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>342</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>343</v>
-      </c>
-      <c r="F69" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3792,19 +3790,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" t="s">
         <v>345</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>346</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>347</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>348</v>
-      </c>
-      <c r="F70" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3812,19 +3810,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" t="s">
         <v>350</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>351</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>352</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>353</v>
-      </c>
-      <c r="F71" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3832,19 +3830,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" t="s">
         <v>355</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>356</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>357</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>358</v>
-      </c>
-      <c r="F72" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3852,19 +3850,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" t="s">
         <v>360</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>361</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>362</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>363</v>
-      </c>
-      <c r="F73" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3872,19 +3870,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" t="s">
         <v>365</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>366</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>367</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>368</v>
-      </c>
-      <c r="F74" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3892,19 +3890,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" t="s">
         <v>370</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>371</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>372</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>373</v>
-      </c>
-      <c r="F75" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3912,19 +3910,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" t="s">
         <v>375</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>376</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>377</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>378</v>
-      </c>
-      <c r="F76" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3932,19 +3930,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>379</v>
+      </c>
+      <c r="C77" t="s">
         <v>380</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>381</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>382</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>383</v>
-      </c>
-      <c r="F77" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3952,19 +3950,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>384</v>
+      </c>
+      <c r="C78" t="s">
         <v>385</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>386</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>387</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>388</v>
-      </c>
-      <c r="F78" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3972,19 +3970,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>389</v>
+      </c>
+      <c r="C79" t="s">
         <v>390</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>391</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>392</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>393</v>
-      </c>
-      <c r="F79" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3992,19 +3990,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" t="s">
         <v>395</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>396</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>397</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>398</v>
-      </c>
-      <c r="F80" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4012,19 +4010,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>399</v>
+      </c>
+      <c r="C81" t="s">
         <v>400</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>401</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>402</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>403</v>
-      </c>
-      <c r="F81" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4032,19 +4030,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C82" t="s">
         <v>405</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>406</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>407</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>408</v>
-      </c>
-      <c r="F82" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4052,19 +4050,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" t="s">
         <v>410</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>411</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>412</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>413</v>
-      </c>
-      <c r="F83" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4072,19 +4070,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" t="s">
         <v>415</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>416</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>417</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>418</v>
-      </c>
-      <c r="F84" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4092,19 +4090,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" t="s">
         <v>420</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>421</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>422</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>423</v>
-      </c>
-      <c r="F85" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4112,19 +4110,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>424</v>
+      </c>
+      <c r="C86" t="s">
         <v>425</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>426</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>427</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>428</v>
-      </c>
-      <c r="F86" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4132,19 +4130,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>429</v>
+      </c>
+      <c r="C87" t="s">
         <v>430</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>431</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>432</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>433</v>
-      </c>
-      <c r="F87" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4152,19 +4150,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>434</v>
+      </c>
+      <c r="C88" t="s">
         <v>435</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>436</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>437</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>438</v>
-      </c>
-      <c r="F88" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4172,19 +4170,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>439</v>
+      </c>
+      <c r="C89" t="s">
         <v>440</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>441</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>442</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>443</v>
-      </c>
-      <c r="F89" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4192,19 +4190,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>444</v>
+      </c>
+      <c r="C90" t="s">
         <v>445</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>446</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>447</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>448</v>
-      </c>
-      <c r="F90" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4212,19 +4210,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
         <v>450</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>451</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>452</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>453</v>
-      </c>
-      <c r="F91" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4232,19 +4230,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>454</v>
+      </c>
+      <c r="C92" t="s">
         <v>455</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>456</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>457</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>458</v>
-      </c>
-      <c r="F92" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4252,19 +4250,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>459</v>
+      </c>
+      <c r="C93" t="s">
         <v>460</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>461</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>462</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>463</v>
-      </c>
-      <c r="F93" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4272,19 +4270,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>464</v>
+      </c>
+      <c r="C94" t="s">
         <v>465</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>466</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>467</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>468</v>
-      </c>
-      <c r="F94" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4292,19 +4290,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>469</v>
+      </c>
+      <c r="C95" t="s">
         <v>470</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>471</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>472</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>473</v>
-      </c>
-      <c r="F95" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4312,19 +4310,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" t="s">
         <v>475</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>476</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>477</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>478</v>
-      </c>
-      <c r="F96" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4332,19 +4330,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>479</v>
+      </c>
+      <c r="C97" t="s">
         <v>480</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>481</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>482</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>483</v>
-      </c>
-      <c r="F97" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4352,19 +4350,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>484</v>
+      </c>
+      <c r="C98" t="s">
         <v>485</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>486</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>487</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>488</v>
-      </c>
-      <c r="F98" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4372,19 +4370,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>489</v>
+      </c>
+      <c r="C99" t="s">
         <v>490</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>491</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>492</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>493</v>
-      </c>
-      <c r="F99" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4392,19 +4390,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>494</v>
+      </c>
+      <c r="C100" t="s">
         <v>495</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>496</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>497</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>498</v>
-      </c>
-      <c r="F100" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4412,19 +4410,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" t="s">
         <v>500</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>501</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>502</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>503</v>
-      </c>
-      <c r="F101" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4432,19 +4430,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
+        <v>504</v>
+      </c>
+      <c r="C102" t="s">
         <v>505</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>506</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>507</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>508</v>
-      </c>
-      <c r="F102" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4452,19 +4450,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
+        <v>509</v>
+      </c>
+      <c r="C103" t="s">
         <v>510</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>511</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>512</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>513</v>
-      </c>
-      <c r="F103" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4472,19 +4470,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
+        <v>514</v>
+      </c>
+      <c r="C104" t="s">
         <v>515</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>516</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>517</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>518</v>
-      </c>
-      <c r="F104" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4492,19 +4490,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>519</v>
+      </c>
+      <c r="C105" t="s">
         <v>520</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>521</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>522</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>523</v>
-      </c>
-      <c r="F105" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4512,19 +4510,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
+        <v>524</v>
+      </c>
+      <c r="C106" t="s">
         <v>525</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>526</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>527</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>528</v>
-      </c>
-      <c r="F106" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4532,19 +4530,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>529</v>
+      </c>
+      <c r="C107" t="s">
         <v>530</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>531</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>532</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>533</v>
-      </c>
-      <c r="F107" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4552,19 +4550,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>534</v>
+      </c>
+      <c r="C108" t="s">
         <v>535</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>536</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>537</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>538</v>
-      </c>
-      <c r="F108" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4572,19 +4570,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>539</v>
+      </c>
+      <c r="C109" t="s">
         <v>540</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>541</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>542</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>543</v>
-      </c>
-      <c r="F109" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4592,19 +4590,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
+        <v>544</v>
+      </c>
+      <c r="C110" t="s">
         <v>545</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>546</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>547</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>548</v>
-      </c>
-      <c r="F110" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4612,19 +4610,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
+        <v>549</v>
+      </c>
+      <c r="C111" t="s">
         <v>550</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>551</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>552</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>553</v>
-      </c>
-      <c r="F111" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4632,19 +4630,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
+        <v>554</v>
+      </c>
+      <c r="C112" t="s">
         <v>555</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>556</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>557</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>558</v>
-      </c>
-      <c r="F112" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4652,19 +4650,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
+        <v>559</v>
+      </c>
+      <c r="C113" t="s">
         <v>560</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>561</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>562</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>563</v>
-      </c>
-      <c r="F113" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4672,19 +4670,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
+        <v>564</v>
+      </c>
+      <c r="C114" t="s">
         <v>565</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>566</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>567</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>568</v>
-      </c>
-      <c r="F114" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4692,19 +4690,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
+        <v>569</v>
+      </c>
+      <c r="C115" t="s">
         <v>570</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>571</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>572</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>573</v>
-      </c>
-      <c r="F115" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4712,19 +4710,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
+        <v>574</v>
+      </c>
+      <c r="C116" t="s">
         <v>575</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>576</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>577</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>578</v>
-      </c>
-      <c r="F116" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4732,19 +4730,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
+        <v>579</v>
+      </c>
+      <c r="C117" t="s">
         <v>580</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>581</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>582</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>583</v>
-      </c>
-      <c r="F117" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4752,19 +4750,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
+        <v>584</v>
+      </c>
+      <c r="C118" t="s">
         <v>585</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>586</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>587</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>588</v>
-      </c>
-      <c r="F118" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4772,19 +4770,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
+        <v>589</v>
+      </c>
+      <c r="C119" t="s">
         <v>590</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>591</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>592</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>593</v>
-      </c>
-      <c r="F119" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4792,19 +4790,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>594</v>
+      </c>
+      <c r="C120" t="s">
         <v>595</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>596</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>597</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>598</v>
-      </c>
-      <c r="F120" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4812,19 +4810,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
+        <v>599</v>
+      </c>
+      <c r="C121" t="s">
         <v>600</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>601</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>602</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>603</v>
-      </c>
-      <c r="F121" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4832,19 +4830,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>604</v>
+      </c>
+      <c r="C122" t="s">
         <v>605</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>606</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>607</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>608</v>
-      </c>
-      <c r="F122" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4852,139 +4850,91 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>609</v>
+      </c>
+      <c r="C123" t="s">
         <v>610</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>611</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>612</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>613</v>
-      </c>
-      <c r="F123" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>614</v>
+      </c>
+      <c r="D124" t="s">
         <v>615</v>
       </c>
-      <c r="C124" t="s">
+      <c r="E124" t="s">
         <v>616</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>617</v>
-      </c>
-      <c r="E124" t="s">
-        <v>618</v>
-      </c>
-      <c r="F124" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>615</v>
-      </c>
       <c r="C125" t="s">
+        <v>618</v>
+      </c>
+      <c r="D125" t="s">
+        <v>619</v>
+      </c>
+      <c r="E125" t="s">
         <v>620</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>621</v>
-      </c>
-      <c r="E125" t="s">
-        <v>622</v>
-      </c>
-      <c r="F125" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>615</v>
-      </c>
       <c r="C126" t="s">
+        <v>622</v>
+      </c>
+      <c r="D126" t="s">
+        <v>623</v>
+      </c>
+      <c r="F126" t="s">
         <v>624</v>
-      </c>
-      <c r="D126" t="s">
-        <v>625</v>
-      </c>
-      <c r="E126" t="s">
-        <v>615</v>
-      </c>
-      <c r="F126" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>615</v>
-      </c>
       <c r="C127" t="s">
-        <v>627</v>
-      </c>
-      <c r="D127" t="s">
-        <v>615</v>
-      </c>
-      <c r="E127" t="s">
-        <v>615</v>
-      </c>
-      <c r="F127" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>615</v>
-      </c>
       <c r="C128" t="s">
-        <v>628</v>
-      </c>
-      <c r="D128" t="s">
-        <v>615</v>
-      </c>
-      <c r="E128" t="s">
-        <v>615</v>
-      </c>
-      <c r="F128" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>615</v>
-      </c>
       <c r="C129" t="s">
-        <v>629</v>
-      </c>
-      <c r="D129" t="s">
-        <v>615</v>
-      </c>
-      <c r="E129" t="s">
-        <v>615</v>
-      </c>
-      <c r="F129" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
